--- a/res/HDAnet_3HAM.xlsx
+++ b/res/HDAnet_3HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3503691338063586</v>
+        <v>0.3449041213261659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5816226609853751</v>
+        <v>0.5959370156015403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6008619954788846</v>
+        <v>0.5605301023565367</v>
       </c>
       <c r="F2" t="n">
-        <v>31.17020392417908</v>
+        <v>29.23857188224792</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2185947893425944</v>
+        <v>0.2341268085329019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7165180743618973</v>
+        <v>0.699348321157482</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6550759149575672</v>
+        <v>0.6485347813320873</v>
       </c>
       <c r="F3" t="n">
-        <v>61.25317978858948</v>
+        <v>58.45684218406677</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1940674195497497</v>
+        <v>0.1926993773158954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7528980278248901</v>
+        <v>0.7514433119126397</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5614525977470196</v>
+        <v>0.6617026877273187</v>
       </c>
       <c r="F4" t="n">
-        <v>90.47373485565186</v>
+        <v>87.68058514595032</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1683016002827834</v>
+        <v>0.1733667654789761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7826051209823166</v>
+        <v>0.7758063822429517</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7473895847014549</v>
+        <v>0.649691304430188</v>
       </c>
       <c r="F5" t="n">
-        <v>120.7316336631775</v>
+        <v>116.9306530952454</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1561106027634332</v>
+        <v>0.1589226583856328</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7980198529513985</v>
+        <v>0.7948701768684313</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7043093459537281</v>
+        <v>0.7077635238810871</v>
       </c>
       <c r="F6" t="n">
-        <v>150.636073589325</v>
+        <v>146.171971321106</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1437202380203746</v>
+        <v>0.1448173548934895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8144336295911416</v>
+        <v>0.8135018685181838</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7651871353429985</v>
+        <v>0.7532205448701758</v>
       </c>
       <c r="F7" t="n">
-        <v>182.0918300151825</v>
+        <v>175.4115762710571</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1343766326637944</v>
+        <v>0.133130205099849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8251626753392093</v>
+        <v>0.8282071087971974</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7924870791447767</v>
+        <v>0.7480981795564761</v>
       </c>
       <c r="F8" t="n">
-        <v>213.7450215816498</v>
+        <v>204.629812002182</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1241147988336288</v>
+        <v>0.1209781912919286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8395129797065284</v>
+        <v>0.8435331067883557</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7135972466028491</v>
+        <v>0.6980432836810466</v>
       </c>
       <c r="F9" t="n">
-        <v>243.9204676151276</v>
+        <v>233.8638217449188</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1152177613827448</v>
+        <v>0.1181656908274347</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8514963568022577</v>
+        <v>0.8469701093567537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7752017847671246</v>
+        <v>0.7478716502071125</v>
       </c>
       <c r="F10" t="n">
-        <v>273.7540459632874</v>
+        <v>263.1171426773071</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1062982045012534</v>
+        <v>0.1086572631990552</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8615332883834733</v>
+        <v>0.8608467133021465</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7476133514977773</v>
+        <v>0.733426852331279</v>
       </c>
       <c r="F11" t="n">
-        <v>304.8914456367493</v>
+        <v>292.3798131942749</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09798264251742765</v>
+        <v>0.1015170968114843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8723582363377912</v>
+        <v>0.8678911810807429</v>
       </c>
       <c r="E12" t="n">
-        <v>0.775926954940392</v>
+        <v>0.7042385062007476</v>
       </c>
       <c r="F12" t="n">
-        <v>335.9778637886047</v>
+        <v>321.6246802806854</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09210767351314222</v>
+        <v>0.09532663079958197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8796971988301452</v>
+        <v>0.8763122745266363</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8046827641947868</v>
+        <v>0.7889038505253586</v>
       </c>
       <c r="F13" t="n">
-        <v>366.8358232975006</v>
+        <v>350.8452451229095</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08796473781321938</v>
+        <v>0.08853025084782686</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8843476955666463</v>
+        <v>0.8839386178091809</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7977017926601334</v>
+        <v>0.7409666488810871</v>
       </c>
       <c r="F14" t="n">
-        <v>396.7404365539551</v>
+        <v>380.0858972072601</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07987605035305023</v>
+        <v>0.0851725976132567</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8935984028318412</v>
+        <v>0.8869636101630707</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8362502604692867</v>
+        <v>0.7481757283668418</v>
       </c>
       <c r="F15" t="n">
-        <v>429.2698578834534</v>
+        <v>409.3079924583435</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07730789519135893</v>
+        <v>0.07766539114210197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.897103286350303</v>
+        <v>0.8970694544847911</v>
       </c>
       <c r="E16" t="n">
-        <v>0.775030901129016</v>
+        <v>0.7516642408819963</v>
       </c>
       <c r="F16" t="n">
-        <v>459.4658980369568</v>
+        <v>439.0299682617188</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07342173662594943</v>
+        <v>0.07246718480574013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.901807707713535</v>
+        <v>0.9033640278318412</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8008250561982219</v>
+        <v>0.7228697558850273</v>
       </c>
       <c r="F17" t="n">
-        <v>490.6213479042053</v>
+        <v>468.2858448028564</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,676 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07227584873947851</v>
+        <v>0.07387588475640529</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9033650053175221</v>
+        <v>0.901578378711839</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8280208122853102</v>
+        <v>0.7362245292609618</v>
       </c>
       <c r="F18" t="n">
-        <v>521.9058797359467</v>
+        <v>497.5496981143951</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06669187671644486</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9102948357476506</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7265256001843807</v>
+      </c>
+      <c r="F19" t="n">
+        <v>526.8136579990387</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.06650181979509401</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.90933890905647</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7307483598327945</v>
+      </c>
+      <c r="F20" t="n">
+        <v>556.0524914264679</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.06185812379261454</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9158992498992103</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7761736114619116</v>
+      </c>
+      <c r="F21" t="n">
+        <v>585.3082139492035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05950897668135589</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9182495599142245</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7463733598327945</v>
+      </c>
+      <c r="F22" t="n">
+        <v>614.5625975131989</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0555726868336467</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9225821022806261</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7535457368281471</v>
+      </c>
+      <c r="F23" t="n">
+        <v>643.8067648410797</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05491914520958788</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9235613800186288</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7476964254142251</v>
+      </c>
+      <c r="F24" t="n">
+        <v>673.0737316608429</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05190671460667488</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9272107685035867</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7253801272984441</v>
+      </c>
+      <c r="F25" t="n">
+        <v>702.3539309501648</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05503992557688045</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9232426653818885</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7215664228253182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>731.6243789196014</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.05126992535932187</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9276585112502085</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7598189028086482</v>
+      </c>
+      <c r="F27" t="n">
+        <v>760.9413390159607</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04880515406826861</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9305549099322972</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7421934197565164</v>
+      </c>
+      <c r="F28" t="n">
+        <v>790.3129601478577</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.04746859632330954</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9323721644226491</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7559063384016973</v>
+      </c>
+      <c r="F29" t="n">
+        <v>819.662449836731</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04580654737816195</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9341665023042596</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7357477915361689</v>
+      </c>
+      <c r="F30" t="n">
+        <v>849.0058441162109</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04434926385613163</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.93552564183882</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.75875788511568</v>
+      </c>
+      <c r="F31" t="n">
+        <v>878.3562793731689</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04254223223603064</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9378993029006562</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7216615335800162</v>
+      </c>
+      <c r="F32" t="n">
+        <v>907.6791806221008</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04189895856770248</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9385578024210365</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7184323064002829</v>
+      </c>
+      <c r="F33" t="n">
+        <v>937.0981357097626</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.04183451947058254</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9384578273577824</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7819244575924429</v>
+      </c>
+      <c r="F34" t="n">
+        <v>966.5038936138153</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.04035259490929118</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9403157561134127</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.731884558433522</v>
+      </c>
+      <c r="F35" t="n">
+        <v>995.8984313011169</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03935018796930521</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.941463541521854</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7711970694837341</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1025.293214082718</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.03902119686395661</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9418541013561419</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7667128539225097</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1054.689185142517</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.03851634142184453</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9422597579137241</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7776292795893109</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1084.166942596436</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.03794473860341781</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9429895595840516</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7353395256617499</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1113.637435674667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.03720591294424411</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9438121680893066</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7609760178824004</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1143.088377714157</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.03644444921361004</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9447767292373352</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7696837823929077</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1172.525374650955</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.03608923165853407</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9451498029388867</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7747451742144877</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1201.85066986084</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03605732258805137</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9451720678905077</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7381675906748838</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1231.241959095001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.03543789847182967</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9458973622657509</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.772457188320873</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1260.661186933517</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.03452714680813314</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9470935332153979</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7778775147125682</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1290.05219078064</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.03408701287465784</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9475124401344325</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7485082213578501</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1319.453104019165</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.03385834586717777</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9478839389979425</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7628253498181451</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1348.855597734451</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03413839857487327</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.947266602485681</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7959049492321681</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1378.265334844589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0330662882863988</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9488369875368403</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7535962520837542</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1407.648563146591</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.03278365118139771</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9492300996948507</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7484484318170338</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1437.069465398788</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.03176761260230795</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9504004758834733</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7411122748913922</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1466.475603818893</v>
       </c>
     </row>
   </sheetData>

--- a/res/HDAnet_3HAM.xlsx
+++ b/res/HDAnet_3HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3449041213261659</v>
+        <v>0.3830308519527113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5959370156015403</v>
+        <v>0.55615646129781</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5605301023565367</v>
+        <v>0.5143743124312431</v>
       </c>
       <c r="F2" t="n">
-        <v>29.23857188224792</v>
+        <v>100.0122401714325</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2341268085329019</v>
+        <v>0.2232453711026371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.699348321157482</v>
+        <v>0.7190746102028459</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6485347813320873</v>
+        <v>0.6558343646864686</v>
       </c>
       <c r="F3" t="n">
-        <v>58.45684218406677</v>
+        <v>199.9739544391632</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1926993773158954</v>
+        <v>0.1912704198659278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7514433119126397</v>
+        <v>0.7601498479917247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6617026877273187</v>
+        <v>0.6871371355885588</v>
       </c>
       <c r="F4" t="n">
-        <v>87.68058514595032</v>
+        <v>299.8232748508453</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1733667654789761</v>
+        <v>0.1673021226390506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7758063822429517</v>
+        <v>0.7893519306943183</v>
       </c>
       <c r="E5" t="n">
-        <v>0.649691304430188</v>
+        <v>0.7668122593509351</v>
       </c>
       <c r="F5" t="n">
-        <v>116.9306530952454</v>
+        <v>399.6145508289337</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1589226583856328</v>
+        <v>0.1476837505436723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7948701768684313</v>
+        <v>0.8147106954536281</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7077635238810871</v>
+        <v>0.7184511940777412</v>
       </c>
       <c r="F6" t="n">
-        <v>146.171971321106</v>
+        <v>499.4385335445404</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1448173548934895</v>
+        <v>0.1370037853392983</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8135018685181838</v>
+        <v>0.8271684358916137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7532205448701758</v>
+        <v>0.6911888063806381</v>
       </c>
       <c r="F7" t="n">
-        <v>175.4115762710571</v>
+        <v>599.259528875351</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133130205099849</v>
+        <v>0.1283884488594305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8282071087971974</v>
+        <v>0.83764205835604</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7480981795564761</v>
+        <v>0.8294630660982765</v>
       </c>
       <c r="F8" t="n">
-        <v>204.629812002182</v>
+        <v>699.0424802303314</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1209781912919286</v>
+        <v>0.1168575304730387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8435331067883557</v>
+        <v>0.8509413475123625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6980432836810466</v>
+        <v>0.7385216698753209</v>
       </c>
       <c r="F9" t="n">
-        <v>233.8638217449188</v>
+        <v>798.8530261516571</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1181656908274347</v>
+        <v>0.1100183955979932</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8469701093567537</v>
+        <v>0.8585466968160258</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7478716502071125</v>
+        <v>0.8116159584708471</v>
       </c>
       <c r="F10" t="n">
-        <v>263.1171426773071</v>
+        <v>898.6745889186859</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1086572631990552</v>
+        <v>0.1047637063898248</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8608467133021465</v>
+        <v>0.8655446437581996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.733426852331279</v>
+        <v>0.7247392395489549</v>
       </c>
       <c r="F11" t="n">
-        <v>292.3798131942749</v>
+        <v>998.3995833396912</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1015170968114843</v>
+        <v>0.09426088156102463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8678911810807429</v>
+        <v>0.8775758464527198</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7042385062007476</v>
+        <v>0.8153795952511917</v>
       </c>
       <c r="F12" t="n">
-        <v>321.6246802806854</v>
+        <v>1098.291687488556</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09532663079958197</v>
+        <v>0.09742104487458107</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8763122745266363</v>
+        <v>0.8744895423352508</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7889038505253586</v>
+        <v>0.7612313783461679</v>
       </c>
       <c r="F13" t="n">
-        <v>350.8452451229095</v>
+        <v>1198.142405748367</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08853025084782686</v>
+        <v>0.08996816231216982</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8839386178091809</v>
+        <v>0.8830456687102634</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7409666488810871</v>
+        <v>0.7849767372570591</v>
       </c>
       <c r="F14" t="n">
-        <v>380.0858972072601</v>
+        <v>1298.001131057739</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0851725976132567</v>
+        <v>0.08346041793394479</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8869636101630707</v>
+        <v>0.8912966905086285</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7481757283668418</v>
+        <v>0.8272034859735974</v>
       </c>
       <c r="F15" t="n">
-        <v>409.3079924583435</v>
+        <v>1397.905030965805</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07766539114210197</v>
+        <v>0.0770349746179191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8970694544847911</v>
+        <v>0.8991800856544555</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7516642408819963</v>
+        <v>0.8120486111111112</v>
       </c>
       <c r="F16" t="n">
-        <v>439.0299682617188</v>
+        <v>1497.799841165543</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07246718480574013</v>
+        <v>0.07801391984201582</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9033640278318412</v>
+        <v>0.8975789055404177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7228697558850273</v>
+        <v>0.8327329139163916</v>
       </c>
       <c r="F17" t="n">
-        <v>468.2858448028564</v>
+        <v>1597.710659980774</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07387588475640529</v>
+        <v>0.0704741953829004</v>
       </c>
       <c r="D18" t="n">
-        <v>0.901578378711839</v>
+        <v>0.9070632915783631</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7362245292609618</v>
+        <v>0.784039924825816</v>
       </c>
       <c r="F18" t="n">
-        <v>497.5496981143951</v>
+        <v>1697.653266906738</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06669187671644486</v>
+        <v>0.06714659486706966</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9102948357476506</v>
+        <v>0.9115301588202644</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7265256001843807</v>
+        <v>0.8350362692519252</v>
       </c>
       <c r="F19" t="n">
-        <v>526.8136579990387</v>
+        <v>1797.62500166893</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06650181979509401</v>
+        <v>0.0666180613986153</v>
       </c>
       <c r="D20" t="n">
-        <v>0.90933890905647</v>
+        <v>0.911997253128469</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7307483598327945</v>
+        <v>0.6366608796296296</v>
       </c>
       <c r="F20" t="n">
-        <v>556.0524914264679</v>
+        <v>1897.511900663376</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06185812379261454</v>
+        <v>0.06460830065794797</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9158992498992103</v>
+        <v>0.9137816315975376</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7761736114619116</v>
+        <v>0.8672870255775578</v>
       </c>
       <c r="F21" t="n">
-        <v>585.3082139492035</v>
+        <v>1997.386130809784</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05950897668135589</v>
+        <v>0.05915617719495654</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9182495599142245</v>
+        <v>0.9200327038550813</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7463733598327945</v>
+        <v>0.8249868788962229</v>
       </c>
       <c r="F22" t="n">
-        <v>614.5625975131989</v>
+        <v>2097.197880029678</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0555726868336467</v>
+        <v>0.05818197886365636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9225821022806261</v>
+        <v>0.9213294259006963</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7535457368281471</v>
+        <v>0.834693000550055</v>
       </c>
       <c r="F23" t="n">
-        <v>643.8067648410797</v>
+        <v>2197.07540178299</v>
       </c>
     </row>
     <row r="24">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05491914520958788</v>
+        <v>0.05437907324824736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9235613800186288</v>
+        <v>0.9259599070289636</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7476964254142251</v>
+        <v>0.8438039741474147</v>
       </c>
       <c r="F24" t="n">
-        <v>673.0737316608429</v>
+        <v>2296.967370033264</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05190671460667488</v>
+        <v>0.05192212784810027</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9272107685035867</v>
+        <v>0.9293044044555455</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7253801272984441</v>
+        <v>0.8630811101943527</v>
       </c>
       <c r="F25" t="n">
-        <v>702.3539309501648</v>
+        <v>2396.732509851456</v>
       </c>
     </row>
     <row r="26">
@@ -948,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05503992557688045</v>
+        <v>0.05170341022820174</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9232426653818885</v>
+        <v>0.9287343576546574</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7215664228253182</v>
+        <v>0.8288286693252659</v>
       </c>
       <c r="F26" t="n">
-        <v>731.6243789196014</v>
+        <v>2499.021980524063</v>
       </c>
     </row>
     <row r="27">
@@ -968,496 +968,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05126992535932187</v>
+        <v>0.0496075711433829</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9276585112502085</v>
+        <v>0.9314624646785751</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7598189028086482</v>
+        <v>0.8263239709387605</v>
       </c>
       <c r="F27" t="n">
-        <v>760.9413390159607</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.04880515406826861</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9305549099322972</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.7421934197565164</v>
-      </c>
-      <c r="F28" t="n">
-        <v>790.3129601478577</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.04746859632330954</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9323721644226491</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.7559063384016973</v>
-      </c>
-      <c r="F29" t="n">
-        <v>819.662449836731</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.04580654737816195</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9341665023042596</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.7357477915361689</v>
-      </c>
-      <c r="F30" t="n">
-        <v>849.0058441162109</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.04434926385613163</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.93552564183882</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.75875788511568</v>
-      </c>
-      <c r="F31" t="n">
-        <v>878.3562793731689</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.04254223223603064</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9378993029006562</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.7216615335800162</v>
-      </c>
-      <c r="F32" t="n">
-        <v>907.6791806221008</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.04189895856770248</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9385578024210365</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.7184323064002829</v>
-      </c>
-      <c r="F33" t="n">
-        <v>937.0981357097626</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04183451947058254</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9384578273577824</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.7819244575924429</v>
-      </c>
-      <c r="F34" t="n">
-        <v>966.5038936138153</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.04035259490929118</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9403157561134127</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.731884558433522</v>
-      </c>
-      <c r="F35" t="n">
-        <v>995.8984313011169</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.03935018796930521</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.941463541521854</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.7711970694837341</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1025.293214082718</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.03902119686395661</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9418541013561419</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.7667128539225097</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1054.689185142517</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.03851634142184453</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9422597579137241</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.7776292795893109</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1084.166942596436</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.03794473860341781</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9429895595840516</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.7353395256617499</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1113.637435674667</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.03720591294424411</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9438121680893066</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.7609760178824004</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1143.088377714157</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03644444921361004</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9447767292373352</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7696837823929077</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1172.525374650955</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.03608923165853407</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9451498029388867</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.7747451742144877</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1201.85066986084</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.03605732258805137</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9451720678905077</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.7381675906748838</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1231.241959095001</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.03543789847182967</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9458973622657509</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.772457188320873</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1260.661186933517</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.03452714680813314</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9470935332153979</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.7778775147125682</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1290.05219078064</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.03408701287465784</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9475124401344325</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.7485082213578501</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1319.453104019165</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03385834586717777</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9478839389979425</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.7628253498181451</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1348.855597734451</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.03413839857487327</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.947266602485681</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.7959049492321681</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1378.265334844589</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0330662882863988</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9488369875368403</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.7535962520837542</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1407.648563146591</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03278365118139771</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9492300996948507</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.7484484318170338</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1437.069465398788</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.03176761260230795</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9504004758834733</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.7411122748913922</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1466.475603818893</v>
+        <v>2600.436596870422</v>
       </c>
     </row>
   </sheetData>
